--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3949.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3949.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.237219630454014</v>
+        <v>0.4960329532623291</v>
       </c>
       <c r="B1">
-        <v>2.238130963993854</v>
+        <v>1.33648145198822</v>
       </c>
       <c r="C1">
-        <v>6.597673178371309</v>
+        <v>4.870220184326172</v>
       </c>
       <c r="D1">
-        <v>3.472679418807834</v>
+        <v>1.434517979621887</v>
       </c>
       <c r="E1">
-        <v>1.392380874025886</v>
+        <v>0.8113567233085632</v>
       </c>
     </row>
   </sheetData>
